--- a/Salesforce/src/main/java/resources/DataSource.xlsx
+++ b/Salesforce/src/main/java/resources/DataSource.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -39,13 +39,7 @@
     <t>SearchText</t>
   </si>
   <si>
-    <t>Fortis</t>
-  </si>
-  <si>
-    <t>ati</t>
-  </si>
-  <si>
-    <t>Ash</t>
+    <t>Gary Abbott</t>
   </si>
 </sst>
 </file>
@@ -419,10 +413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -435,16 +429,6 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Salesforce/src/main/java/resources/DataSource.xlsx
+++ b/Salesforce/src/main/java/resources/DataSource.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -40,6 +40,45 @@
   </si>
   <si>
     <t>Gary Abbott</t>
+  </si>
+  <si>
+    <t>Record Type</t>
+  </si>
+  <si>
+    <t>PNH - HCP</t>
+  </si>
+  <si>
+    <t>PNH Never On Therapy</t>
+  </si>
+  <si>
+    <t>PNH Meet Criteria</t>
+  </si>
+  <si>
+    <t>PNHOnDemand</t>
+  </si>
+  <si>
+    <t>aHUS - HCO</t>
+  </si>
+  <si>
+    <t>aHUS - HCP</t>
+  </si>
+  <si>
+    <t>HPP - HCO</t>
+  </si>
+  <si>
+    <t>HPP - HCP</t>
+  </si>
+  <si>
+    <t>LAL-D - HCO</t>
+  </si>
+  <si>
+    <t>PNH - HCO</t>
+  </si>
+  <si>
+    <t>ref gMG / gMG - HCO</t>
+  </si>
+  <si>
+    <t>ref gMG - HCP</t>
   </si>
 </sst>
 </file>
@@ -75,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +414,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,22 +453,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>563</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>563</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>563</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>563</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>563</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>563</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>563</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>563</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>563</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2534</v>
       </c>
     </row>
   </sheetData>
